--- a/DATA/collate_cultivar_data_new_order/data/projected_weekly_data.xlsx
+++ b/DATA/collate_cultivar_data_new_order/data/projected_weekly_data.xlsx
@@ -156,7 +156,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="B359" activeCellId="0" sqref="B359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5191,7 +5191,7 @@
         <v>357</v>
       </c>
       <c r="D359" s="0" t="n">
-        <v>0.0923351</v>
+        <v>0.0925294</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,7 +5205,7 @@
         <v>358</v>
       </c>
       <c r="D360" s="0" t="n">
-        <v>0.0923351</v>
+        <v>0.0925294</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,7 +5219,7 @@
         <v>359</v>
       </c>
       <c r="D361" s="0" t="n">
-        <v>0.0923351</v>
+        <v>0.0925294</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,7 +5233,7 @@
         <v>360</v>
       </c>
       <c r="D362" s="0" t="n">
-        <v>0.0923351</v>
+        <v>0.0925294</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5247,7 +5247,7 @@
         <v>361</v>
       </c>
       <c r="D363" s="0" t="n">
-        <v>0.0923351</v>
+        <v>0.0925294</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,7 +5261,7 @@
         <v>362</v>
       </c>
       <c r="D364" s="0" t="n">
-        <v>0.0923351</v>
+        <v>0.0925294</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,7 +5275,7 @@
         <v>363</v>
       </c>
       <c r="D365" s="0" t="n">
-        <v>0.0923351</v>
+        <v>0.0925294</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,7 +5289,7 @@
         <v>364</v>
       </c>
       <c r="D366" s="0" t="n">
-        <v>0.0923351</v>
+        <v>0.0925294</v>
       </c>
     </row>
   </sheetData>
